--- a/medicine/Bioéthique/Susan_B._Anthony_List/Susan_B._Anthony_List.xlsx
+++ b/medicine/Bioéthique/Susan_B._Anthony_List/Susan_B._Anthony_List.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Susan B. Anthony List (aussi connue sous le nom de SBA List) est une organisation américaine à but non lucratif[1] et indépendante politiquement[2], de type 501(c)(4). Elle a pour but de soutenir les personnalités politiques pro-vie, et avant tout les femmes politiques[3], à travers son comité d'action politique apparenté, le SBA List Candidate Fund[4], avec « l'ultime objectif de mettre fin à l'avortement » aux États-Unis[5]. L'objet premier de l'association est de soutenir les femmes pro-vie candidates à des élections[3]. Elle soutient également les hommes pro-vie qui ont pour adversaires des femmes pro-choix[3].
-La SBA List rassemble plus de 280 000 membres[6],[7] et revendique l'envoi par ses militants de plus d'1,5 million de courriers au Congrès des États-Unis en 2009[8]. Les dons à l'organisation ont augmenté de 50 % entre 2007 et 2009[9]. 
-Elle tient son nom de la féministe américaine Susan B. Anthony. Le choix de ce nom fait l'objet d'une controverse : l'universitaire Ann D. Gordon et la journaliste Lynn Sherr, ainsi que les militants pro-choix, soutiennent que Susan B. Anthony ne s'est jamais prononcée au sujet de l'avortement[10], ce que réfutent les responsables de la SBA List[11].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Susan B. Anthony List (aussi connue sous le nom de SBA List) est une organisation américaine à but non lucratif et indépendante politiquement, de type 501(c)(4). Elle a pour but de soutenir les personnalités politiques pro-vie, et avant tout les femmes politiques, à travers son comité d'action politique apparenté, le SBA List Candidate Fund, avec « l'ultime objectif de mettre fin à l'avortement » aux États-Unis. L'objet premier de l'association est de soutenir les femmes pro-vie candidates à des élections. Elle soutient également les hommes pro-vie qui ont pour adversaires des femmes pro-choix.
+La SBA List rassemble plus de 280 000 membres, et revendique l'envoi par ses militants de plus d'1,5 million de courriers au Congrès des États-Unis en 2009. Les dons à l'organisation ont augmenté de 50 % entre 2007 et 2009. 
+Elle tient son nom de la féministe américaine Susan B. Anthony. Le choix de ce nom fait l'objet d'une controverse : l'universitaire Ann D. Gordon et la journaliste Lynn Sherr, ainsi que les militants pro-choix, soutiennent que Susan B. Anthony ne s'est jamais prononcée au sujet de l'avortement, ce que réfutent les responsables de la SBA List.
 </t>
         </is>
       </c>
